--- a/math/statistics/scoring system.xlsx
+++ b/math/statistics/scoring system.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\math\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E919CCC-A1D6-40ED-9D34-9D838D57DB6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF357295-42AD-4B5E-AE5E-C1B8435CF67B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C79B29B4-6FE7-4730-996B-F7B473C66CCE}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>weight (1-10)</t>
   </si>
   <si>
-    <t>option</t>
-  </si>
-  <si>
     <t>poster</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>movie4</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DCCE42-086B-485E-A06B-6AFB02410D7B}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -462,7 +464,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -470,7 +472,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -478,7 +480,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -486,7 +488,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -494,7 +496,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -502,43 +504,43 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>10</v>
@@ -563,7 +565,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -588,7 +590,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -613,7 +615,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
